--- a/文档/WMS开发计划.xlsx
+++ b/文档/WMS开发计划.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -189,45 +189,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +561,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,7 +589,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -604,7 +604,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -619,7 +619,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -634,7 +634,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -651,10 +651,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -663,16 +663,16 @@
       <c r="D6" s="10">
         <v>43303</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
@@ -681,10 +681,10 @@
       <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="15">
         <v>43318</v>
       </c>
       <c r="E8" s="2"/>
@@ -692,10 +692,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
     </row>
   </sheetData>

--- a/文档/WMS开发计划.xlsx
+++ b/文档/WMS开发计划.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C3E36FFD-851E-4723-B8B8-37506AEE998E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据多种条件组合查询物料的搬运记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布一版进行测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,13 +88,18 @@
   </si>
   <si>
     <t>按货位盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据多种条件组合查询物料
+的搬运记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,50 +186,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -266,6 +271,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -314,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +355,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,21 +599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +630,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -603,8 +645,8 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -618,8 +660,8 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -633,69 +675,69 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>43294</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="10">
         <v>43303</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="17">
+        <v>43318</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
-        <v>43318</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
     </row>
   </sheetData>
@@ -715,12 +757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,12 +770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
